--- a/TP2/Ej1_Bodes/Inversor_G1_OK.xlsx
+++ b/TP2/Ej1_Bodes/Inversor_G1_OK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesTC\TP2\Ej1_Bodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A492F8-05BF-4E9B-909E-7EFC873D20E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B78BD0A-9AC0-4F00-AF15-79BB25D83583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{826EC9EB-3C6B-49AF-A4B9-77B5F67C16A4}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +110,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +430,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,10 +519,12 @@
         <v>173</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="4">
+        <v>0.04</v>
+      </c>
       <c r="M3" s="1">
         <f>(H3*1200)/(H3-L3)</f>
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -551,10 +556,12 @@
         <v>171</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M22" si="1">(H4*1200)/(H4-L4)</f>
-        <v>1200</v>
+        <v>1261.8296529968454</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -586,10 +593,12 @@
         <v>169</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="4">
+        <v>4.7E-2</v>
+      </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1274.9003984063745</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -621,10 +630,12 @@
         <v>166</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="4">
+        <v>4.7E-2</v>
+      </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1286.3705972434918</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -656,10 +667,12 @@
         <v>165</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1302.1702838063441</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -691,10 +704,12 @@
         <v>164</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1318.6813186813185</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -726,10 +741,12 @@
         <v>162</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="4">
+        <v>4.7E-2</v>
+      </c>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1324.503311258278</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -761,10 +778,12 @@
         <v>145</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="4">
+        <v>0.04</v>
+      </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -796,10 +815,12 @@
         <v>126</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1599.9999999999998</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -831,10 +852,12 @@
         <v>115</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -866,10 +889,12 @@
         <v>111</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -901,10 +926,12 @@
         <v>108</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="4">
+        <v>0.03</v>
+      </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -936,10 +963,12 @@
         <v>108</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="4">
+        <v>0.03</v>
+      </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -971,10 +1000,12 @@
         <v>106</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="4">
+        <v>0.03</v>
+      </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1006,10 +1037,12 @@
         <v>103</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="4">
+        <v>3.1E-2</v>
+      </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1739.1304347826085</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1041,10 +1074,12 @@
         <v>100</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1764.705882352941</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1076,10 +1111,12 @@
         <v>98</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1764.705882352941</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1111,10 +1148,12 @@
         <v>97</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1764.705882352941</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1146,10 +1185,12 @@
         <v>95</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1764.705882352941</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1181,10 +1222,12 @@
         <v>92</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1764.705882352941</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
